--- a/biology/Zoologie/Babe,_le_cochon_devenu_berger/Babe,_le_cochon_devenu_berger.xlsx
+++ b/biology/Zoologie/Babe,_le_cochon_devenu_berger/Babe,_le_cochon_devenu_berger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Babe, le cochon devenu berger (Babe) est un film australo-américain réalisé par Chris Noonan, sorti en 1995. Il est basé sur le livre The Sheep-Pig ou Babe, the Gallant Pig de Dick King-Smith paru en 1983.
 Le film connaît un large succès critique et commercial international. Nommé sept fois aux Oscars (dont meilleur film, meilleur réalisateur, et meilleur acteur dans un second rôle), il obtient l'Oscar des meilleurs effets visuels.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce conte animalier raconte l'histoire d'un cochon nommé Babe. Destiné, comme tous les cochons, à finir en charcuterie (bacon, rillettes…), il échappe à ce sort tragique d'une manière miraculeuse. En effet, le fermier Arthur Hoggett le gagne lors d'un jeu de foire. Le porcelet découvre donc la vie à la ferme et ses habitants, animaux comme humains. Il est pris en affection par Ficelle, la chienne de berger, et cherche sa place dans une basse-cour où tous ont un rôle à jouer. Lui vient alors l'idée qu'il pourrait être « cochon de berger ».
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Babe
 Titre français : Babe, le cochon devenu berger
@@ -589,9 +605,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Cavanaugh (VF : Barbara Delsol / Christophe Lemoine) : Babe (voix)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Cavanaugh (VF : Barbara Delsol / Christophe Lemoine) : Babe (voix)
 Miriam Margolyes (VF : Ginette Pigeon) : Ficelle, la chienne (voix)
 Danny Mann (VF : Vincent Violette) : Ferdinand, le canard (voix)
 Hugo Weaving (VF : Claude Giraud) : Rex, le chien (voix)
@@ -649,9 +667,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Quarante-huit porcelets ont joué le rôle de Babe[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Quarante-huit porcelets ont joué le rôle de Babe.
 Ce film a été suivi de Babe, le cochon dans la ville de George Miller (1998), film pour lequel il a fallu 128 porcelets.
 On peut entendre, dans la bande sonore, des extraits du mouvement final de la Symphonie no 3 avec orgue de Camille Saint-Saëns. La chanson du générique, If I Had Words, de Scott Fitzgerald et Yvonne Keeley, est inspirée du maestoso de cette symphonie.
 On peut également entendre, dans une scène où Ferdinand le canard cherche à récupérer un trampoline dans la chambre du fermier, le début du pizzicato du cinquième acte de l'opéra Sylvia de Léo Delibes.</t>
@@ -682,7 +702,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Oscar des meilleurs effets visuels
 Nomination pour l'Oscar du meilleur film
